--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\UTA\Academics\Spring 2023\CSE 6367 - Computer Vision\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9A879-0353-40CE-A6D0-A4B33FF5E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4E5E8A-EED3-4510-BE39-6E98024DBF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Paper Title</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>NeuroScaler - Neural Video Enhancement at Scale</t>
+  </si>
+  <si>
+    <t>RT-VENet: A Convolutional Network for Real-time Video Enhancement</t>
+  </si>
+  <si>
+    <t>ReBotNet: Fast Real-time Video Enhancement</t>
   </si>
 </sst>
 </file>
@@ -128,10 +134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -428,28 +434,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -466,6 +472,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -474,7 +481,8 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -491,7 +499,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -516,12 +524,35 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
